--- a/Results/combinatorial_physiological_markers_cv_results.xlsx
+++ b/Results/combinatorial_physiological_markers_cv_results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>Biomarker</t>
   </si>
@@ -38,34 +38,34 @@
     <t>Type</t>
   </si>
   <si>
-    <t>H-r Amplitude*SYS Blood Pres 1/H-r Length/SYS Blood Pres 2</t>
-  </si>
-  <si>
-    <t>H-r Latency*L-Thigh Circ/H-r Length/Isometric Strength</t>
-  </si>
-  <si>
-    <t>R-Thigh Circ*L-Thigh Circ/H-r Length/Isometric Strength</t>
-  </si>
-  <si>
-    <t>Isometric Strength*DIA Blood Pres 2/H-r Length/Contrac Tone</t>
-  </si>
-  <si>
-    <t>Isometric Strength/EMG Freq/L-Thigh Circ</t>
-  </si>
-  <si>
-    <t>R-Thigh Circ/H-r Length/Isometric Strength</t>
-  </si>
-  <si>
-    <t>L-Thigh Circ/H-r Length/Isometric Strength</t>
-  </si>
-  <si>
-    <t>Isometric Strength*DIA Blood Pres 2/H-r Length/L-Thigh Circ</t>
-  </si>
-  <si>
-    <t>H-r Latency*H-r Amplitude/H-r Length/Isometric Strength</t>
-  </si>
-  <si>
-    <t>Isometric Strength*DIA Blood Pres 2/H-r Length/R-Thigh Circ</t>
+    <t>Contrac Tone*DIA Blood Pres 1/H-r Latency/H-r Amplitude</t>
+  </si>
+  <si>
+    <t>SYS Blood Pres 2/H-r Amplitude/Contrac Tone</t>
+  </si>
+  <si>
+    <t>DIA Blood Pres 1*SYS Blood Pres 2/Contrac Tone/Isometric Strength</t>
+  </si>
+  <si>
+    <t>R-Thigh Circ*Isometric Strength/Contrac Tone/DIA Blood Pres 1</t>
+  </si>
+  <si>
+    <t>Mean Amp EMG/Max Amp EMG</t>
+  </si>
+  <si>
+    <t>R-Thigh Circ*SYS Blood Pres 1/H-r Latency/H-r Amplitude</t>
+  </si>
+  <si>
+    <t>H-r Latency*H-r Amplitude/SYS Blood Pres 1</t>
+  </si>
+  <si>
+    <t>SYS Blood Pres 1/H-r Latency/H-r Amplitude</t>
+  </si>
+  <si>
+    <t>Relax Tone*DIA Blood Pres 1/EMG Freq/H-r Length</t>
+  </si>
+  <si>
+    <t>H-r Length*Relax Tone/Contrac Tone/Isometric Strength</t>
   </si>
   <si>
     <t>Creatinekinase / Myoglobin</t>
@@ -77,28 +77,34 @@
     <t>a/b/c</t>
   </si>
   <si>
-    <t>H-r Length*Isometric Strength/H-r Latency/SYS Blood Pres 1</t>
-  </si>
-  <si>
-    <t>Relax Tone/L-Thigh Circ/Isometric Strength</t>
-  </si>
-  <si>
-    <t>Contrac Tone/Isometric Strength/DIA Blood Pres 1</t>
+    <t>a/b</t>
+  </si>
+  <si>
+    <t>a*b/c</t>
+  </si>
+  <si>
+    <t>H-r Amplitude*DIA Blood Pres 1/H-r Latency/R-Thigh Circ</t>
+  </si>
+  <si>
+    <t>H-r Latency*SYS Blood Pres 2/Relax Tone/SYS Blood Pres 1</t>
+  </si>
+  <si>
+    <t>Max Amp EMG*EMG Freq/Relax Tone/Isometric Strength</t>
   </si>
   <si>
     <t>Creatinekinase / AST</t>
   </si>
   <si>
+    <t>Creatinekinase</t>
+  </si>
+  <si>
+    <t>Creatinekinase / Albumin</t>
+  </si>
+  <si>
+    <t>Myoglobin</t>
+  </si>
+  <si>
     <t>Myoglobin / Albumin</t>
-  </si>
-  <si>
-    <t>Myoglobin</t>
-  </si>
-  <si>
-    <t>Creatinekinase</t>
-  </si>
-  <si>
-    <t>Creatinekinase / Albumin</t>
   </si>
   <si>
     <t>AST</t>
@@ -496,16 +502,16 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0.06845857197365202</v>
+        <v>0.0697605987256531</v>
       </c>
       <c r="D2">
-        <v>3.391126923822223</v>
+        <v>3.521886083407285</v>
       </c>
       <c r="E2">
-        <v>0.0140453155376294</v>
+        <v>0.0141102239303964</v>
       </c>
       <c r="F2">
-        <v>0.09681504094583335</v>
+        <v>0.09865638483708586</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -522,22 +528,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.08003122431926012</v>
+        <v>0.07900281254924711</v>
       </c>
       <c r="D3">
-        <v>3.958333006757896</v>
+        <v>3.939653012361567</v>
       </c>
       <c r="E3">
-        <v>0.01652546422851253</v>
+        <v>0.01554025561384364</v>
       </c>
       <c r="F3">
-        <v>0.1131812428456211</v>
+        <v>0.1117268489727646</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -548,16 +554,16 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.08234986672714004</v>
+        <v>0.08102939950861551</v>
       </c>
       <c r="D4">
-        <v>4.147526979792188</v>
+        <v>4.042391815677072</v>
       </c>
       <c r="E4">
-        <v>0.01889479521167387</v>
+        <v>0.01615119833403651</v>
       </c>
       <c r="F4">
-        <v>0.1164602983851383</v>
+        <v>0.1145928757360319</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -574,16 +580,16 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.08476703460079983</v>
+        <v>0.08685644125718808</v>
       </c>
       <c r="D5">
-        <v>4.198086815368447</v>
+        <v>4.337691560742713</v>
       </c>
       <c r="E5">
-        <v>0.01966347752461132</v>
+        <v>0.0192468382915548</v>
       </c>
       <c r="F5">
-        <v>0.1198786899746005</v>
+        <v>0.1228335572053774</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -600,22 +606,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.08346946970089182</v>
+        <v>0.08864669683528453</v>
       </c>
       <c r="D6">
-        <v>4.207028413925653</v>
+        <v>4.404190731832863</v>
       </c>
       <c r="E6">
-        <v>0.01838833557783127</v>
+        <v>0.024410218080354</v>
       </c>
       <c r="F6">
-        <v>0.1180436560950913</v>
+        <v>0.1253653609240355</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -626,22 +632,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>0.08469697394484449</v>
+        <v>0.09738355371885994</v>
       </c>
       <c r="D7">
-        <v>4.262783090306476</v>
+        <v>4.882564993925331</v>
       </c>
       <c r="E7">
-        <v>0.02045212910848184</v>
+        <v>0.02944950040175255</v>
       </c>
       <c r="F7">
-        <v>0.1197796092447597</v>
+        <v>0.1377211424213006</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,22 +658,22 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>0.08525203668608723</v>
+        <v>0.09705140890409557</v>
       </c>
       <c r="D8">
-        <v>4.291608943117039</v>
+        <v>4.895399781778043</v>
       </c>
       <c r="E8">
-        <v>0.02018310613249936</v>
+        <v>0.02921545009433196</v>
       </c>
       <c r="F8">
-        <v>0.1205645865013932</v>
+        <v>0.1372514187195889</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,22 +684,22 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.1023353361000688</v>
+        <v>0.09828531206812077</v>
       </c>
       <c r="D9">
-        <v>5.08590918589856</v>
+        <v>4.923061521809868</v>
       </c>
       <c r="E9">
-        <v>0.02827199860760358</v>
+        <v>0.02910404924886366</v>
       </c>
       <c r="F9">
-        <v>0.1447240202227263</v>
+        <v>0.1389964213088084</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,16 +710,16 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>0.1015163667123521</v>
+        <v>0.09813850382833836</v>
       </c>
       <c r="D10">
-        <v>5.098229684787958</v>
+        <v>4.938599135980846</v>
       </c>
       <c r="E10">
-        <v>0.03065041733168967</v>
+        <v>0.02889889987365832</v>
       </c>
       <c r="F10">
-        <v>0.1435658226074489</v>
+        <v>0.13878880310504</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -730,16 +736,16 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>0.1110008500510268</v>
+        <v>0.1034355550353411</v>
       </c>
       <c r="D11">
-        <v>5.50731111326075</v>
+        <v>5.196562839232835</v>
       </c>
       <c r="E11">
-        <v>0.03509819787336103</v>
+        <v>0.03211874186333936</v>
       </c>
       <c r="F11">
-        <v>0.1569789075771044</v>
+        <v>0.146279964762568</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -789,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>0.08525203668608723</v>
+        <v>0.1034355550353411</v>
       </c>
       <c r="D2">
-        <v>4.291608943117039</v>
+        <v>5.196562839232835</v>
       </c>
       <c r="E2">
-        <v>0.02018310613249936</v>
+        <v>0.03211874186333936</v>
       </c>
       <c r="F2">
-        <v>0.1205645865013932</v>
+        <v>0.146279964762568</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -815,22 +821,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>0.1901385300711771</v>
+        <v>0.2358699218475306</v>
       </c>
       <c r="D3">
-        <v>9.502132001932718</v>
+        <v>11.75281083089158</v>
       </c>
       <c r="E3">
-        <v>0.1138215535516347</v>
+        <v>0.2121637036230433</v>
       </c>
       <c r="F3">
-        <v>0.2688964879563432</v>
+        <v>0.3335704424326598</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
@@ -841,25 +847,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>0.189722933183616</v>
+        <v>0.443593232279656</v>
       </c>
       <c r="D4">
-        <v>14.33369911700722</v>
+        <v>12.86915072521276</v>
       </c>
       <c r="E4">
-        <v>0.08734414209532396</v>
+        <v>0.4625479729567475</v>
       </c>
       <c r="F4">
-        <v>0.2683087452014743</v>
+        <v>0.6273355652668082</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -867,25 +873,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>0.3168986777539567</v>
+        <v>0.2706359869702644</v>
       </c>
       <c r="D5">
-        <v>14.5511256057113</v>
+        <v>13.00127769376858</v>
       </c>
       <c r="E5">
-        <v>0.2406411084924125</v>
+        <v>0.1745657206542967</v>
       </c>
       <c r="F5">
-        <v>0.4481624079777466</v>
+        <v>0.3827370832395761</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -893,25 +899,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6">
-        <v>0.5863032725017048</v>
+        <v>0.3710558942551704</v>
       </c>
       <c r="D6">
-        <v>16.71093861096345</v>
+        <v>15.33031110354196</v>
       </c>
       <c r="E6">
-        <v>1.069948816758763</v>
+        <v>0.3315626059183997</v>
       </c>
       <c r="F6">
-        <v>0.8291580396356395</v>
+        <v>0.5247522780541389</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -919,25 +925,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>0.3551183869256703</v>
+        <v>0.2262060599971696</v>
       </c>
       <c r="D7">
-        <v>16.72497614387888</v>
+        <v>15.39197249274547</v>
       </c>
       <c r="E7">
-        <v>0.3970754785460158</v>
+        <v>0.1251437711019118</v>
       </c>
       <c r="F7">
-        <v>0.5022132390383394</v>
+        <v>0.3199036779389793</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -945,25 +951,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>0.3372268401146772</v>
+        <v>0.2965340401798373</v>
       </c>
       <c r="D8">
-        <v>18.7936921594183</v>
+        <v>16.45964588981204</v>
       </c>
       <c r="E8">
-        <v>0.3044838054509438</v>
+        <v>0.2287924186612471</v>
       </c>
       <c r="F8">
-        <v>0.4769107708863998</v>
+        <v>0.4193624613276142</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
